--- a/docs/Book1.xlsx
+++ b/docs/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Orhanelturk\enerxl\enerxl\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39668976-2AC6-4280-9985-2A2458EE2575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E8C24D-8EC2-4DAE-95DF-9EDF7429B8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D4CAF21-6F8E-4B10-A4D7-6A136766D255}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Area 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>No. PV Modules</t>
   </si>
@@ -54,18 +51,6 @@
   </si>
   <si>
     <t>Azimuth</t>
-  </si>
-  <si>
-    <t>Area 2</t>
-  </si>
-  <si>
-    <t>Area 3</t>
-  </si>
-  <si>
-    <t>Area 4</t>
-  </si>
-  <si>
-    <t>Area 5</t>
   </si>
   <si>
     <t xml:space="preserve">Area </t>
@@ -467,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074EAD33-22AF-42DD-8DC1-7D5EEC36CE64}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A6" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,50 +472,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
